--- a/biology/Biochimie/PCR_quantitative/PCR_quantitative.xlsx
+++ b/biology/Biochimie/PCR_quantitative/PCR_quantitative.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La PCR quantitative (ou qPCR), ou PCR en temps réel, est une méthode particulière de réaction en chaîne par polymérase permettant de mesurer la quantité initiale d'ADN. En réalité, la PCR quantitative mesure le nombre d'amplicon (portion d'ADN définie par un couple d'amorces).
 Il existe diverses techniques permettant de quantifier l'ADN en biologie moléculaire. On peut utiliser la spectrophotométrie UV-visible à 260 nm qui permet de connaître avec précision la concentration d'ADN total dans un échantillon par dosage optique. Cette méthode ne peut cependant pas permettre de connaître avec précision la quantité d'un ADN particulier (défini par une séquence précise de nucléotides). Il existe heureusement plusieurs techniques fiables permettant la quantification de l'expression d'un gène particulier comme le Southern blot, le Northern blot et bien sûr la PCR quantitative.
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1985 : invention par Kary Mullis en 1985 de la technique de réaction en chaîne par polymérase (PCR).
 1991 : première utilisation de sonde (sonde d’hydrolyse) en PCR publiée par Holland et collaborateurs.
@@ -546,11 +560,16 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Définition
-La réaction en chaîne par polymérase en temps réel (PCR en temps réel) est une technique[1] ayant de nombreuses applications, basée sur une réaction enzymatique, la PCR, et sur la mesure en continu de son produit[2] et in vivo.
+          <t>Définition</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La réaction en chaîne par polymérase en temps réel (PCR en temps réel) est une technique ayant de nombreuses applications, basée sur une réaction enzymatique, la PCR, et sur la mesure en continu de son produit et in vivo.
 Il existe différents appareils de PCR en temps réel.
 À chaque cycle d’amplification, la quantité d’ADN total ou d’amplicon est mesurée grâce à un marqueur fluorescent. L’obtention de la cinétique complète de la réaction de polymérisation permet d’obtenir une quantification absolue de la quantité initiale d’ADN cible, ce qui était très difficile à obtenir sans biais en PCR en point final.
-Le principe de la PCR en temps réel repose sur la possibilité de suivre la quantité d'ADN présente dans la réaction à tout instant et non à la fin de la PCR (PCR point final) ou au cycle n &lt; 40 (PCR semi-quantitative). Des sondes fluorescentes se fixent soit sur l'ADN double brin (technologie SYBR) ou sur une séquence d'ADN précise (technologie Taqman[3] et Beacon). Ces sondes ne fluorescent qu'une fois fixées à l'ADN (soit à cause d'un « quencher » soit car la fluorescence nécessite un ADN double brin). Un seuil de fluorescence est établi par le programme de l'appareil de PCR en temps réel. Une fois que la quantité d'ADN permet aux sondes fluorescentes de dépasser ce seuil alors on obtient un numéro de cycle PCR appelé « Ct » pour « Cycle Threshold » soit « cycle seuil ». C'est cette valeur qui est à la base des calculs pour quantifier l'ADN de façon absolue ou relative. Il est important de connaître l'efficacité E de la PCR. Pour cela, on effectue une PCR en temps réel sur des échantillons de dilution croissante pour obtenir une courbe étalon correspondant au couple d'amorces utilisé (spécifiques du locus d'intérêt). Par exemple, une série de dilution au ½ (
+Le principe de la PCR en temps réel repose sur la possibilité de suivre la quantité d'ADN présente dans la réaction à tout instant et non à la fin de la PCR (PCR point final) ou au cycle n &lt; 40 (PCR semi-quantitative). Des sondes fluorescentes se fixent soit sur l'ADN double brin (technologie SYBR) ou sur une séquence d'ADN précise (technologie Taqman et Beacon). Ces sondes ne fluorescent qu'une fois fixées à l'ADN (soit à cause d'un « quencher » soit car la fluorescence nécessite un ADN double brin). Un seuil de fluorescence est établi par le programme de l'appareil de PCR en temps réel. Une fois que la quantité d'ADN permet aux sondes fluorescentes de dépasser ce seuil alors on obtient un numéro de cycle PCR appelé « Ct » pour « Cycle Threshold » soit « cycle seuil ». C'est cette valeur qui est à la base des calculs pour quantifier l'ADN de façon absolue ou relative. Il est important de connaître l'efficacité E de la PCR. Pour cela, on effectue une PCR en temps réel sur des échantillons de dilution croissante pour obtenir une courbe étalon correspondant au couple d'amorces utilisé (spécifiques du locus d'intérêt). Par exemple, une série de dilution au ½ (
           D
             n
             +
@@ -563,8 +582,43 @@
     {\displaystyle D_{n+1}=D_{n}/2}
 ) doit, en théorie, donner des courbes d'amplification décalées d'un cycle PCR à chaque fois. Si tel est le cas, la réaction a alors une efficacité égale à 2 (la quantité d'ADN double à chaque cycle). En pratique, le programme de la machine de PCR en temps réel peut calculer l'efficacité E de la réaction. Plus souvent, une PCR en temps réel sur une série de dilution avec une quantité d'ADN initiale connue permet de calculer l'efficacité de la réaction. Les Ct sont placées sur un graphe en échelle logarithmique et l'équation de la régression linéaire passant par ces points donne l'efficacité (c'est le coefficient directeur).
 Grâce à l'extraordinaire puissance de la technique d'amplification de l'ADN par PCR, il est possible aujourd'hui d'établir un profil génétique à partir de quantités infimes d'ADN.
-Pourquoi quantifier en nombre de cycles ?
-La différence fondamentale de la PCR en temps réel avec la PCR en point final est que l’intégralité de la cinétique mesurable (au-dessus du bruit de fond) est quantifiée. Les données de fluorescence peuvent donc être exprimées en logarithme afin d’identifier facilement la phase exponentielle et mesurable, qui prend alors une apparence linéaire. Cette partie, alors appelée « segment quantifiable », permet de calculer la quantité d’ADN initial.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PCR_quantitative</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/PCR_quantitative</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>PCR en temps réel</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pourquoi quantifier en nombre de cycles ?</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La différence fondamentale de la PCR en temps réel avec la PCR en point final est que l’intégralité de la cinétique mesurable (au-dessus du bruit de fond) est quantifiée. Les données de fluorescence peuvent donc être exprimées en logarithme afin d’identifier facilement la phase exponentielle et mesurable, qui prend alors une apparence linéaire. Cette partie, alors appelée « segment quantifiable », permet de calculer la quantité d’ADN initial.
 Graphique de gauche (A) :
 Les cinétiques de PCR théoriques de trois échantillons (K, L et M) de concentration d’ADN initiale décroissantes (considérons d’un facteur 10 à chaque fois) sont représentées dans un repère semi logarithmique. Les mesures du bruit de fond ou trop influencées par lui (phase 1 et 2 d’une cinétique mesurable de PCR) ne sont pas représentées.
 (1) Zone des segments quantifiables de chaque échantillon (phase 3 d’une cinétique mesurable de PCR). Les autres phases sont représentées en gris et n’ont pas d’intérêt pour ce chapitre.
@@ -577,7 +631,43 @@
 (4) Il est possible de projeter les équations de droite sur une parallèle à l’axe des abscisses coupant les segments quantifiables par le milieu. Ce segment sera appelé « seuil de détection ».
 (5) Les valeurs en X (en nombre de cycles) de ces intersections sont généralement nommés CT (de l’anglais Cycle Threshold pour « cycle seuil »), mais parfois aussi CP (de l’anglais Crossing Point pour « point de croisement »). Ce sont des valeurs mathématiques définies sur l’espace des réels positifs et non des entiers positifs (bien qu’une fraction de cycle n’ait aucune réalité expérimentale). Ces valeurs sont inversement proportionnelles à la quantité d’ADN initial, et l’incertitude sur la mesure est minimisée au maximum (en général inférieur à 5 %).
 La quantification en passant par une valeur mathématique en nombre de cycles (CT) permet donc d’obtenir des résultats fiables, mais n’est pas exploitable directement. Afin d’obtenir la quantité d’ADN initial, il va falloir réaliser de nouvelles transformations mathématiques qui nécessitent de connaître l’efficacité de PCR. Cette dernière est généralement déterminée grâce à une gamme d’étalonnage.
-Gamme d'étalonnage
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PCR_quantitative</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/PCR_quantitative</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>PCR en temps réel</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Gamme d'étalonnage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Graphique de gauche (A) :
 Neuf échantillons (F, G, H, I, J, K, L, M et N) de concentration en ADN initial décroissante (d’un ordre de grandeur à chaque fois) ont été amplifiés par PCR dans une même expérience. Chacune des cinétiques a permis de déterminer son CT propre, déterminé en nombre de cycle. Les concentrations en ADN sont connues en nombre de copies par tube (F ≈ 70 millions et N ≈ 0,7). Les données représentées correspondent à l’expérimentation « n », exemple parmi un grand nombre de dupliqués indépendants dans le temps, pour les lots des réactifs et pour les expérimentateurs. La fluorescence est exprimée en unités arbitraires et le bruit de fond a été normalisé. Notez qu’aucune amplification n’a été obtenue pour l’échantillon Nn.
 Graphique de droite (B) :
@@ -651,8 +741,43 @@
 l’imprécision sur la quantification à ces concentrations est tellement importante qu’une modélisation de « l’amortissement » est peu pertinente ;
 cet « amortissement » correspond, lorsque des gammes moyennes sont réalisées, à un abaissement de la pente, donc à une augmentation de l’efficacité de PCR, alors que l’accroissement des effets stochastiques devrait l’abaisser. Il faut noter alors que cet « amortissement » est généré principalement par la concentration la plus faible (N, soit 0,7 copies). Or aucune amplification ne pourra se faire s’il n’y a pas au moins une molécule d’ADN initial. Le biais qui en résulte dans la distribution gaussienne de l’erreur est susceptible de provoquer cet « amortissement moyen ».
 Il faut avoir conscience que si la gamme d'étalonnage démontre l'aspect quantitatif du protocole expérimental, il est difficile d'éviter tous les biais potentiels, comme une différence de composition chimique entre le solvant des échantillons (milieu complexe d'ADN complémentaire, présence d'ARN, de protéines, etc.) et le diluant des points de la gamme (généralement de l'eau).
-Quantification absolue
-Durant la partie de la courbe en sigmoïde de l'échantillon, après la ligne de seuil de détection, au moment où l'amplification est exponentielle, on a :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>PCR_quantitative</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/PCR_quantitative</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>PCR en temps réel</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Quantification absolue</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant la partie de la courbe en sigmoïde de l'échantillon, après la ligne de seuil de détection, au moment où l'amplification est exponentielle, on a :
           Q
             n
         =
@@ -687,8 +812,43 @@
                   c
                   t
     {\displaystyle Q_{o}={\frac {Q_{ct}}{(1+E)^{ct}}}}
-Quantification relative
-On établit un rapport R entre la quantité d'ADN de départ d'un échantillon et celle d'un témoin, qui n'a pas subi de traitement. Au seuil de détection, on a :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>PCR_quantitative</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/PCR_quantitative</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>PCR en temps réel</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Quantification relative</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On établit un rapport R entre la quantité d'ADN de départ d'un échantillon et celle d'un témoin, qui n'a pas subi de traitement. Au seuil de détection, on a :
         R
         =
               Q
@@ -748,41 +908,148 @@
             c
             t
     {\displaystyle R=E^{-\Delta ct}}
-Quantification relative corrigée par un gène de référence
-Le gène de référence est un gène qui n'est pas régulé par le traitement que l'on fait subir pour mesurer la variation du gène cible. Effectuer une correction à partir d'un gène de référence permet d'éliminer les effets de fluctuations.
-Courbe de fusion
-Une courbe de fusion en PCR en temps réel est une étape programmée supplémentaire à la fin des cycles d'amplification.
-Transformation de Ct (ou CP)
-Le Ct ou Cp correspond au point seuil pour lequel le signal de fluorescence est significativement supérieur au bruit de fond, c'est-à-dire au nombre de cycles minimal pour lequel l'ADN amplifié est détectable. Ce point est atteint en début de phase exponentielle. Plus la quantité d'ADN initiale sera faible, plus le Ct sera élevé[4].
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>PCR_quantitative</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Biochimie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/PCR_quantitative</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PCR_quantitative</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/PCR_quantitative</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>PCR en temps réel</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Quantification relative corrigée par un gène de référence</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gène de référence est un gène qui n'est pas régulé par le traitement que l'on fait subir pour mesurer la variation du gène cible. Effectuer une correction à partir d'un gène de référence permet d'éliminer les effets de fluctuations.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PCR_quantitative</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/PCR_quantitative</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>PCR en temps réel</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Courbe de fusion</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une courbe de fusion en PCR en temps réel est une étape programmée supplémentaire à la fin des cycles d'amplification.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PCR_quantitative</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/PCR_quantitative</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>PCR en temps réel</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Transformation de Ct (ou CP)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Ct ou Cp correspond au point seuil pour lequel le signal de fluorescence est significativement supérieur au bruit de fond, c'est-à-dire au nombre de cycles minimal pour lequel l'ADN amplifié est détectable. Ce point est atteint en début de phase exponentielle. Plus la quantité d'ADN initiale sera faible, plus le Ct sera élevé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PCR_quantitative</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/PCR_quantitative</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>PCR en point final</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">La réaction en chaîne par polymérase en point final n'est nommée ainsi que depuis l'apparition de la PCR en temps réel. Du point de vue enzymatique, il n’y a aucune différence théorique entre ces deux types de PCR.
 Il s'agit de la première technique inventée, où la quantité d'ADN n'est mesurée qu'à la fin de la réaction.
@@ -791,93 +1058,99 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>PCR_quantitative</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Biochimie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/PCR_quantitative</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>PCR_quantitative</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/PCR_quantitative</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>PCR semi-quantitative</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">La PCR semi-quantitative est basée sur l'interruption de la PCR en plusieurs cycles qui correspondent à la phase stationnaire (la quantité d'ADN augmente très doucement car il y a peu d'ADN matrice), la phase exponentielle (croissance rapide) et au plateau (diminution de la quantité de réactifs). Pour un échantillon, il est possible d'estimer la quantité initiale d'ADN si l'on dispose d'un échantillon où la quantité d'ADN est connue (étalon). Leur amplification par PCR, l'arrêt de la réaction entre le 20e et le 30e cycle PCR et la comparaison entre les intensités lumineuses des produits PCR marqués au BET permettent d'estimer la quantité initiale d'ADN. Pour deux échantillons, il est possible de comparer leur quantité d'ADN initiale en arrêtant la PCR avant le plateau de la PCR (&lt; 30 cycles).
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>PCR_quantitative</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Biochimie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/PCR_quantitative</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>PCR_quantitative</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/PCR_quantitative</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>PCR compétitive</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la PCR quantitative, telle la PCR en temps réel, on peut mesurer la quantité absolue de l'ADN ou ARN qui présente de l'intérêt. Dans la PCR compétitive, on mesure des quantités relatives par rapport à des ADN ou des ARN ajoutés (standards internes ou externes). Le standard est amplifié en même temps que l’ARN recherché, il y a donc compétition entre ces deux amplifications. Plus la quantité de standard est importante moins l’ARN recherché sera amplifié[5].
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la PCR quantitative, telle la PCR en temps réel, on peut mesurer la quantité absolue de l'ADN ou ARN qui présente de l'intérêt. Dans la PCR compétitive, on mesure des quantités relatives par rapport à des ADN ou des ARN ajoutés (standards internes ou externes). Le standard est amplifié en même temps que l’ARN recherché, il y a donc compétition entre ces deux amplifications. Plus la quantité de standard est importante moins l’ARN recherché sera amplifié.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>PCR_quantitative</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Biochimie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/PCR_quantitative</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>PCR_quantitative</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/PCR_quantitative</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Applications</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Mise au point d'amorces.
 Détection de mutations ponctuelles.
